--- a/result/without_base/12/arousal/s05_0.xlsx
+++ b/result/without_base/12/arousal/s05_0.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.5824999809265137</v>
+        <v>0.4325000047683716</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4974999874830246</v>
+        <v>0.4150000065565109</v>
       </c>
       <c r="C2" t="n">
-        <v>41755.33984375</v>
+        <v>41746.291015625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5026136284524744</v>
+        <v>0.4918181733651595</v>
       </c>
       <c r="E2" t="n">
-        <v>41755.42045454546</v>
+        <v>41743.90376420454</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4400000125169754</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C3" t="n">
-        <v>41030.314453125</v>
+        <v>40998.689453125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5013636404817755</v>
+        <v>0.5478409041057933</v>
       </c>
       <c r="E3" t="n">
-        <v>41028.61363636364</v>
+        <v>40999.01029829546</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5125000029802322</v>
+        <v>0.4774999916553497</v>
       </c>
       <c r="C4" t="n">
-        <v>40293.078125</v>
+        <v>40255.822265625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5470454476096414</v>
+        <v>0.5762499977241863</v>
       </c>
       <c r="E4" t="n">
-        <v>40292.90269886364</v>
+        <v>40254.66619318182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C5" t="n">
-        <v>39573.166015625</v>
+        <v>39523.314453125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5688636357134039</v>
+        <v>0.5548863681879911</v>
       </c>
       <c r="E5" t="n">
-        <v>39572.60901988636</v>
+        <v>39522.01420454546</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5274999737739563</v>
+        <v>0.5524999797344208</v>
       </c>
       <c r="C6" t="n">
-        <v>38853.009765625</v>
+        <v>38801.09765625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5885227268392389</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="E6" t="n">
-        <v>38851.53799715909</v>
+        <v>38800.078125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4925000071525574</v>
+        <v>0.4974999874830246</v>
       </c>
       <c r="C7" t="n">
-        <v>38142.921875</v>
+        <v>38082.59765625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5927272764119235</v>
+        <v>0.5706818212162365</v>
       </c>
       <c r="E7" t="n">
-        <v>38142.15767045454</v>
+        <v>38081.18643465909</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.502499982714653</v>
       </c>
       <c r="C8" t="n">
-        <v>37443.078125</v>
+        <v>37379.267578125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5960227305238898</v>
+        <v>0.5830681811679493</v>
       </c>
       <c r="E8" t="n">
-        <v>37442.29332386364</v>
+        <v>37377.85262784091</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="C9" t="n">
-        <v>36751.853515625</v>
+        <v>36684.96875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5996590852737427</v>
+        <v>0.5780681805177168</v>
       </c>
       <c r="E9" t="n">
-        <v>36750.82599431818</v>
+        <v>36683.1953125</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.510000005364418</v>
+        <v>0.4424999952316284</v>
       </c>
       <c r="C10" t="n">
-        <v>36070.744140625</v>
+        <v>36001.53515625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.624204543503848</v>
+        <v>0.6015909151597456</v>
       </c>
       <c r="E10" t="n">
-        <v>36069.44353693182</v>
+        <v>35999.46697443182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5174999833106995</v>
+        <v>0.4899999797344208</v>
       </c>
       <c r="C11" t="n">
-        <v>35400.359375</v>
+        <v>35327.845703125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6131818077780984</v>
+        <v>0.603750001300465</v>
       </c>
       <c r="E11" t="n">
-        <v>35399.05894886364</v>
+        <v>35326.23686079546</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5199999809265137</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C12" t="n">
-        <v>34739.63671875</v>
+        <v>34665.5078125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6265909184109081</v>
+        <v>0.621818179433996</v>
       </c>
       <c r="E12" t="n">
-        <v>34738.35511363636</v>
+        <v>34664.15838068182</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C13" t="n">
-        <v>34090.103515625</v>
+        <v>34014.0234375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6289772716435519</v>
+        <v>0.6204545443708246</v>
       </c>
       <c r="E13" t="n">
-        <v>34089.03231534091</v>
+        <v>34012.83771306818</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.4374999850988388</v>
       </c>
       <c r="C14" t="n">
-        <v>33450.458984375</v>
+        <v>33373.115234375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.588522732257843</v>
+        <v>0.623750009319999</v>
       </c>
       <c r="E14" t="n">
-        <v>33449.546875</v>
+        <v>33371.89595170454</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4975000023841858</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="C15" t="n">
-        <v>32821.5078125</v>
+        <v>32742.919921875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6146590926430442</v>
+        <v>0.6345454562794078</v>
       </c>
       <c r="E15" t="n">
-        <v>32820.83309659091</v>
+        <v>32741.33629261364</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5625</v>
+        <v>0.4724999964237213</v>
       </c>
       <c r="C16" t="n">
-        <v>32202.80078125</v>
+        <v>32122.9921875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6585227305238898</v>
+        <v>0.6504545536908236</v>
       </c>
       <c r="E16" t="n">
-        <v>32201.81569602273</v>
+        <v>32121.51296164773</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.4675000011920929</v>
       </c>
       <c r="C17" t="n">
-        <v>31595.41796875</v>
+        <v>31513.833984375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6355681798674844</v>
+        <v>0.6338636387478221</v>
       </c>
       <c r="E17" t="n">
-        <v>31593.91352982954</v>
+        <v>31512.416015625</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5425000190734863</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C18" t="n">
-        <v>30996.9150390625</v>
+        <v>30915.2138671875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6571591008793224</v>
+        <v>0.6420454653826627</v>
       </c>
       <c r="E18" t="n">
-        <v>30995.99982244318</v>
+        <v>30914.01846590909</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C19" t="n">
-        <v>30409.001953125</v>
+        <v>30326.296875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6599999991330233</v>
+        <v>0.6504545374350115</v>
       </c>
       <c r="E19" t="n">
-        <v>30408.36203835227</v>
+        <v>30325.3046875</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C20" t="n">
-        <v>29832.412109375</v>
+        <v>29747.87109375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6520454612645236</v>
+        <v>0.6781818162311207</v>
       </c>
       <c r="E20" t="n">
-        <v>29831.28373579546</v>
+        <v>29746.68270596591</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5525000095367432</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="C21" t="n">
-        <v>29264.537109375</v>
+        <v>29179.5673828125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6448863690549677</v>
+        <v>0.6776136376641013</v>
       </c>
       <c r="E21" t="n">
-        <v>29263.48029119318</v>
+        <v>29178.28426846591</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5474999845027924</v>
+        <v>0.4775000065565109</v>
       </c>
       <c r="C22" t="n">
-        <v>28706.392578125</v>
+        <v>28621.0244140625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6792045452378013</v>
+        <v>0.6634090922095559</v>
       </c>
       <c r="E22" t="n">
-        <v>28705.31800426136</v>
+        <v>28619.74502840909</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5524999797344208</v>
+        <v>0.4849999994039536</v>
       </c>
       <c r="C23" t="n">
-        <v>28158.1123046875</v>
+        <v>28072.494140625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6609090891751376</v>
+        <v>0.6780681826851584</v>
       </c>
       <c r="E23" t="n">
-        <v>28157.20436789773</v>
+        <v>28071.05149147727</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4925000071525574</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="C24" t="n">
-        <v>27619.8603515625</v>
+        <v>27533.4013671875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.68193180994554</v>
+        <v>0.6887499960986051</v>
       </c>
       <c r="E24" t="n">
-        <v>27618.84641335227</v>
+        <v>27531.96448863636</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5249999761581421</v>
+        <v>0.489999994635582</v>
       </c>
       <c r="C25" t="n">
-        <v>27091.1328125</v>
+        <v>27003.8544921875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6722727201201699</v>
+        <v>0.6392045400359414</v>
       </c>
       <c r="E25" t="n">
-        <v>27089.99431818182</v>
+        <v>27002.50106534091</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4649999886751175</v>
+        <v>0.5424999892711639</v>
       </c>
       <c r="C26" t="n">
-        <v>26571.259765625</v>
+        <v>26483.2431640625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.687954539602453</v>
+        <v>0.6862499984827909</v>
       </c>
       <c r="E26" t="n">
-        <v>26570.12659801136</v>
+        <v>26482.22691761364</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.4999999850988388</v>
       </c>
       <c r="C27" t="n">
-        <v>26060.4755859375</v>
+        <v>25972.4365234375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.687840916893699</v>
+        <v>0.6932954571463845</v>
       </c>
       <c r="E27" t="n">
-        <v>26059.43235085227</v>
+        <v>25971.298828125</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5074999928474426</v>
+        <v>0.4675000011920929</v>
       </c>
       <c r="C28" t="n">
-        <v>25559.3447265625</v>
+        <v>25470.791015625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6723863590847362</v>
+        <v>0.6810227307406339</v>
       </c>
       <c r="E28" t="n">
-        <v>25558.08771306818</v>
+        <v>25469.4609375</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4625000059604645</v>
+        <v>0.4325000047683716</v>
       </c>
       <c r="C29" t="n">
-        <v>25067.044921875</v>
+        <v>24978.01953125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6584090969779275</v>
+        <v>0.6804545521736145</v>
       </c>
       <c r="E29" t="n">
-        <v>25065.65767045454</v>
+        <v>24976.693359375</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5449999868869781</v>
+        <v>0.4650000035762787</v>
       </c>
       <c r="C30" t="n">
-        <v>24583.36328125</v>
+        <v>24494.078125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6837499954483726</v>
+        <v>0.6929545456712897</v>
       </c>
       <c r="E30" t="n">
-        <v>24582.18181818182</v>
+        <v>24492.80024857954</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.4749999940395355</v>
       </c>
       <c r="C31" t="n">
-        <v>24107.5390625</v>
+        <v>24018.6669921875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6855681755326011</v>
+        <v>0.6869318160143766</v>
       </c>
       <c r="E31" t="n">
-        <v>24106.81622869318</v>
+        <v>24017.50426136364</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4774999916553497</v>
+        <v>0.4425000101327896</v>
       </c>
       <c r="C32" t="n">
-        <v>23641.34375</v>
+        <v>23552.162109375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6972727287899364</v>
+        <v>0.7070454521612688</v>
       </c>
       <c r="E32" t="n">
-        <v>23640.21004971591</v>
+        <v>23550.69193892046</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5150000005960464</v>
+        <v>0.612500011920929</v>
       </c>
       <c r="C33" t="n">
-        <v>23183.146484375</v>
+        <v>23093.6943359375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6743181889707391</v>
+        <v>0.6753409071402117</v>
       </c>
       <c r="E33" t="n">
-        <v>23182.28639914773</v>
+        <v>23092.69833096591</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4975000023841858</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C34" t="n">
-        <v>22733.0478515625</v>
+        <v>22643.484375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7142045497894287</v>
+        <v>0.6968181837688793</v>
       </c>
       <c r="E34" t="n">
-        <v>22731.92347301136</v>
+        <v>22642.54119318182</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4350000023841858</v>
+        <v>0.5250000059604645</v>
       </c>
       <c r="C35" t="n">
-        <v>22291.15625</v>
+        <v>22201.69921875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7122727307406339</v>
+        <v>0.7111363681879911</v>
       </c>
       <c r="E35" t="n">
-        <v>22290.08984375</v>
+        <v>22200.720703125</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4399999976158142</v>
+        <v>0.5475000143051147</v>
       </c>
       <c r="C36" t="n">
-        <v>21857.31640625</v>
+        <v>21767.9765625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6954545432871039</v>
+        <v>0.7104545398191973</v>
       </c>
       <c r="E36" t="n">
-        <v>21856.31676136364</v>
+        <v>21766.83913352273</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5174999982118607</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="C37" t="n">
-        <v>21431.0498046875</v>
+        <v>21342.3037109375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7132954543287103</v>
+        <v>0.6871590939435092</v>
       </c>
       <c r="E37" t="n">
-        <v>21430.20809659091</v>
+        <v>21340.96768465909</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4124999940395355</v>
+        <v>0.4624999910593033</v>
       </c>
       <c r="C38" t="n">
-        <v>21013.1787109375</v>
+        <v>20924.23046875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6919318275018171</v>
+        <v>0.6570454673333601</v>
       </c>
       <c r="E38" t="n">
-        <v>21012.10564630682</v>
+        <v>20922.88423295454</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5825000107288361</v>
+        <v>0.4874999821186066</v>
       </c>
       <c r="C39" t="n">
-        <v>20602.4296875</v>
+        <v>20513.478515625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6943181807344611</v>
+        <v>0.7068181904879484</v>
       </c>
       <c r="E39" t="n">
-        <v>20601.45614346591</v>
+        <v>20512.15855823864</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.4625000059604645</v>
       </c>
       <c r="C40" t="n">
-        <v>20199.0400390625</v>
+        <v>20110.1728515625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7123863697052002</v>
+        <v>0.7080681811679493</v>
       </c>
       <c r="E40" t="n">
-        <v>20198.015625</v>
+        <v>20109.01242897727</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4974999874830246</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C41" t="n">
-        <v>19803.2509765625</v>
+        <v>19714.3486328125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.691931816664609</v>
+        <v>0.6955681822516702</v>
       </c>
       <c r="E41" t="n">
-        <v>19802.24254261364</v>
+        <v>19713.43306107954</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.5274999737739563</v>
       </c>
       <c r="C42" t="n">
-        <v>19414.8154296875</v>
+        <v>19325.8388671875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6485227292234247</v>
+        <v>0.7072727300904014</v>
       </c>
       <c r="E42" t="n">
-        <v>19414.02095170454</v>
+        <v>19324.95703125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.4774999916553497</v>
       </c>
       <c r="C43" t="n">
-        <v>19032.6748046875</v>
+        <v>18944.59375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7084090926430442</v>
+        <v>0.7015909064899791</v>
       </c>
       <c r="E43" t="n">
-        <v>19031.91832386364</v>
+        <v>18943.59215198864</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4549999982118607</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C44" t="n">
-        <v>18658.5234375</v>
+        <v>18570.21484375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7176136374473572</v>
+        <v>0.6992045478387312</v>
       </c>
       <c r="E44" t="n">
-        <v>18657.37109375</v>
+        <v>18569.36221590909</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4525000005960464</v>
+        <v>0.447500005364418</v>
       </c>
       <c r="C45" t="n">
-        <v>18290.8701171875</v>
+        <v>18203.0087890625</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6648863716558977</v>
+        <v>0.6917045549912886</v>
       </c>
       <c r="E45" t="n">
-        <v>18289.76935369318</v>
+        <v>18201.974609375</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4575000107288361</v>
+        <v>0.4449999928474426</v>
       </c>
       <c r="C46" t="n">
-        <v>17929.8994140625</v>
+        <v>17842.111328125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6364772699095986</v>
+        <v>0.6930681737986478</v>
       </c>
       <c r="E46" t="n">
-        <v>17928.94957386364</v>
+        <v>17841.25337357954</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4749999940395355</v>
+        <v>0.4300000071525574</v>
       </c>
       <c r="C47" t="n">
-        <v>17575.3916015625</v>
+        <v>17488.138671875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6704545454545454</v>
+        <v>0.7011363668875261</v>
       </c>
       <c r="E47" t="n">
-        <v>17574.35529119318</v>
+        <v>17487.23277698864</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4825000017881393</v>
+        <v>0.5274999737739563</v>
       </c>
       <c r="C48" t="n">
-        <v>17227.470703125</v>
+        <v>17140.642578125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6737499995665117</v>
+        <v>0.7029545523903586</v>
       </c>
       <c r="E48" t="n">
-        <v>17226.58309659091</v>
+        <v>17139.82120028409</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5200000107288361</v>
+        <v>0.5424999892711639</v>
       </c>
       <c r="C49" t="n">
-        <v>16885.73828125</v>
+        <v>16799.6982421875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6931818181818182</v>
+        <v>0.6752272790128534</v>
       </c>
       <c r="E49" t="n">
-        <v>16884.98561789773</v>
+        <v>16798.94762073864</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.4724999964237213</v>
       </c>
       <c r="C50" t="n">
-        <v>16550.6640625</v>
+        <v>16465.033203125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7207954580133612</v>
+        <v>0.6444318240339105</v>
       </c>
       <c r="E50" t="n">
-        <v>16549.77254971591</v>
+        <v>16464.20543323864</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5324999839067459</v>
       </c>
       <c r="C51" t="n">
-        <v>16221.67919921875</v>
+        <v>16136.0966796875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7200000015172091</v>
+        <v>0.7203409075737</v>
       </c>
       <c r="E51" t="n">
-        <v>16220.75346235795</v>
+        <v>16135.36985085227</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5250000059604645</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C52" t="n">
-        <v>15898.5751953125</v>
+        <v>15813.66455078125</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7240909175439314</v>
+        <v>0.6965909058397467</v>
       </c>
       <c r="E52" t="n">
-        <v>15897.72887073864</v>
+        <v>15813.01837713068</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5225000083446503</v>
+        <v>0.4675000160932541</v>
       </c>
       <c r="C53" t="n">
-        <v>15581.56298828125</v>
+        <v>15497.634765625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7013636502352628</v>
+        <v>0.6396590904756025</v>
       </c>
       <c r="E53" t="n">
-        <v>15580.74209872159</v>
+        <v>15496.72887073864</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5475000143051147</v>
+        <v>0.4324999898672104</v>
       </c>
       <c r="C54" t="n">
-        <v>15270.39453125</v>
+        <v>15186.8359375</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7001136432994496</v>
+        <v>0.6927272785793651</v>
       </c>
       <c r="E54" t="n">
-        <v>15269.61763139205</v>
+        <v>15185.94078480114</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4474999904632568</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C55" t="n">
-        <v>14965.30908203125</v>
+        <v>14881.88525390625</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7113636406985197</v>
+        <v>0.6988636255264282</v>
       </c>
       <c r="E55" t="n">
-        <v>14964.31622869318</v>
+        <v>14881.09694602273</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.5050000101327896</v>
       </c>
       <c r="C56" t="n">
-        <v>14665.2431640625</v>
+        <v>14582.974609375</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7044318209994923</v>
+        <v>0.6795454621315002</v>
       </c>
       <c r="E56" t="n">
-        <v>14664.53355823864</v>
+        <v>14582.06658380682</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5449999868869781</v>
+        <v>0.4624999910593033</v>
       </c>
       <c r="C57" t="n">
-        <v>14371.2568359375</v>
+        <v>14289.25</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7024999965320934</v>
+        <v>0.6476136391813104</v>
       </c>
       <c r="E57" t="n">
-        <v>14370.49014559659</v>
+        <v>14288.51704545455</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5050000101327896</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C58" t="n">
-        <v>14082.318359375</v>
+        <v>14001.4052734375</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7238636341961947</v>
+        <v>0.6664772738109935</v>
       </c>
       <c r="E58" t="n">
-        <v>14081.5673828125</v>
+        <v>14000.65447443182</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.570000022649765</v>
+        <v>0.5774999856948853</v>
       </c>
       <c r="C59" t="n">
-        <v>13799.5380859375</v>
+        <v>13718.912109375</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6506818262013522</v>
+        <v>0.6198863603852012</v>
       </c>
       <c r="E59" t="n">
-        <v>13798.80877130682</v>
+        <v>13718.32759232955</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4874999821186066</v>
+        <v>0.5050000101327896</v>
       </c>
       <c r="C60" t="n">
-        <v>13521.3466796875</v>
+        <v>13440.9169921875</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6181818138469349</v>
+        <v>0.6960227272727273</v>
       </c>
       <c r="E60" t="n">
-        <v>13520.619140625</v>
+        <v>13440.17444957386</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4825000017881393</v>
+        <v>0.4849999994039536</v>
       </c>
       <c r="C61" t="n">
-        <v>13248.28662109375</v>
+        <v>13168.61767578125</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7044318264180963</v>
+        <v>0.6965909112583507</v>
       </c>
       <c r="E61" t="n">
-        <v>13247.51145241477</v>
+        <v>13167.99556107955</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C62" t="n">
-        <v>12980.3505859375</v>
+        <v>12901.44775390625</v>
       </c>
       <c r="D62" t="n">
-        <v>0.718295465816151</v>
+        <v>0.719545456496152</v>
       </c>
       <c r="E62" t="n">
-        <v>12979.70658735795</v>
+        <v>12900.77104048295</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5449999868869781</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C63" t="n">
-        <v>12717.72705078125</v>
+        <v>12639.564453125</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6917045441540804</v>
+        <v>0.6990909088741649</v>
       </c>
       <c r="E63" t="n">
-        <v>12717.13077059659</v>
+        <v>12638.73686079545</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4775000065565109</v>
+        <v>0.554999977350235</v>
       </c>
       <c r="C64" t="n">
-        <v>12459.9990234375</v>
+        <v>12382.23291015625</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7130681872367859</v>
+        <v>0.6976136348464272</v>
       </c>
       <c r="E64" t="n">
-        <v>12459.14976917614</v>
+        <v>12381.53924005682</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6175000071525574</v>
+        <v>0.4599999934434891</v>
       </c>
       <c r="C65" t="n">
-        <v>12206.8291015625</v>
+        <v>12129.9853515625</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7006818164478649</v>
+        <v>0.6967045610601251</v>
       </c>
       <c r="E65" t="n">
-        <v>12206.24174360795</v>
+        <v>12129.18963068182</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5449999868869781</v>
+        <v>0.5075000077486038</v>
       </c>
       <c r="C66" t="n">
-        <v>11958.47900390625</v>
+        <v>11882.2890625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6988636363636364</v>
+        <v>0.6760227409276095</v>
       </c>
       <c r="E66" t="n">
-        <v>11957.9541015625</v>
+        <v>11881.65864701705</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5150000005960464</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C67" t="n">
-        <v>11714.9697265625</v>
+        <v>11639.373046875</v>
       </c>
       <c r="D67" t="n">
-        <v>0.697500001300465</v>
+        <v>0.6953409151597456</v>
       </c>
       <c r="E67" t="n">
-        <v>11714.34925426136</v>
+        <v>11638.61248224432</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5150000005960464</v>
+        <v>0.4849999845027924</v>
       </c>
       <c r="C68" t="n">
-        <v>11476.0322265625</v>
+        <v>11401.146484375</v>
       </c>
       <c r="D68" t="n">
-        <v>0.692727267742157</v>
+        <v>0.6895454580133612</v>
       </c>
       <c r="E68" t="n">
-        <v>11475.32049005682</v>
+        <v>11400.34499289773</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5100000202655792</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C69" t="n">
-        <v>11241.423828125</v>
+        <v>11167.0224609375</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7114772742444818</v>
+        <v>0.6846590963276949</v>
       </c>
       <c r="E69" t="n">
-        <v>11240.78409090909</v>
+        <v>11166.46439985795</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5224999934434891</v>
+        <v>0.4224999994039536</v>
       </c>
       <c r="C70" t="n">
-        <v>11011.318359375</v>
+        <v>10937.833984375</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7029545578089628</v>
+        <v>0.6335227218541232</v>
       </c>
       <c r="E70" t="n">
-        <v>11010.71022727273</v>
+        <v>10937.18501420455</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6049999892711639</v>
+        <v>0.5200000107288361</v>
       </c>
       <c r="C71" t="n">
-        <v>10785.95751953125</v>
+        <v>10712.9501953125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6676136417822405</v>
+        <v>0.6674999973990701</v>
       </c>
       <c r="E71" t="n">
-        <v>10785.31764914773</v>
+        <v>10712.20960582386</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5</v>
+        <v>0.4824999868869781</v>
       </c>
       <c r="C72" t="n">
-        <v>10564.2900390625</v>
+        <v>10491.9697265625</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6603409051895142</v>
+        <v>0.6415909041057933</v>
       </c>
       <c r="E72" t="n">
-        <v>10563.65012428977</v>
+        <v>10491.32865767045</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5875000059604645</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C73" t="n">
-        <v>10346.62060546875</v>
+        <v>10275.28076171875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.699545448476618</v>
+        <v>0.6831818222999573</v>
       </c>
       <c r="E73" t="n">
-        <v>10346.20232599432</v>
+        <v>10274.666015625</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5675000250339508</v>
+        <v>0.5625</v>
       </c>
       <c r="C74" t="n">
-        <v>10133.5859375</v>
+        <v>10062.6123046875</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6956818266348406</v>
+        <v>0.66909090497277</v>
       </c>
       <c r="E74" t="n">
-        <v>10133.03986150568</v>
+        <v>10062.1572265625</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.4449999928474426</v>
       </c>
       <c r="C75" t="n">
-        <v>9924.86572265625</v>
+        <v>9854.40185546875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6182954528115012</v>
+        <v>0.655454548922452</v>
       </c>
       <c r="E75" t="n">
-        <v>9924.185369318182</v>
+        <v>9853.780539772728</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.574999988079071</v>
+        <v>0.4624999910593033</v>
       </c>
       <c r="C76" t="n">
-        <v>9719.25634765625</v>
+        <v>9650.02685546875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6872727329080756</v>
+        <v>0.6211363619024103</v>
       </c>
       <c r="E76" t="n">
-        <v>9718.852805397728</v>
+        <v>9649.483220880682</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4774999916553497</v>
+        <v>0.6075000166893005</v>
       </c>
       <c r="C77" t="n">
-        <v>9518.21240234375</v>
+        <v>9449.46044921875</v>
       </c>
       <c r="D77" t="n">
-        <v>0.70193181254647</v>
+        <v>0.6843181848526001</v>
       </c>
       <c r="E77" t="n">
-        <v>9517.550248579546</v>
+        <v>9448.83114346591</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4950000047683716</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C78" t="n">
-        <v>9320.6708984375</v>
+        <v>9252.64013671875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.686704548922452</v>
+        <v>0.6711363629861311</v>
       </c>
       <c r="E78" t="n">
-        <v>9320.124822443182</v>
+        <v>9251.9775390625</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5224999934434891</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C79" t="n">
-        <v>9127.134765625</v>
+        <v>9059.49658203125</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6863636428659613</v>
+        <v>0.6692045439373363</v>
       </c>
       <c r="E79" t="n">
-        <v>9126.513671875</v>
+        <v>9059.056906960228</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C80" t="n">
-        <v>8937.5634765625</v>
+        <v>8870.88916015625</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6421590989286249</v>
+        <v>0.6510227268392389</v>
       </c>
       <c r="E80" t="n">
-        <v>8937.103338068182</v>
+        <v>8870.199662642046</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5824999809265137</v>
+        <v>0.4325000047683716</v>
       </c>
       <c r="C81" t="n">
-        <v>8750.99951171875</v>
+        <v>8685.1103515625</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6484090902588584</v>
+        <v>0.6185227307406339</v>
       </c>
       <c r="E81" t="n">
-        <v>8750.66122159091</v>
+        <v>8684.410600142046</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0.008771929824561403</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.03508771929824561</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.03508771929824561</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C5" t="n">
         <v>0.007936507936507936</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C6" t="n">
         <v>0.007936507936507936</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C7" t="n">
         <v>0.01587301587301587</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.06140350877192982</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C8" t="n">
         <v>0.01587301587301587</v>
@@ -2036,79 +2036,79 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.06140350877192982</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03968253968253968</v>
+        <v>0.06349206349206349</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03968253968253968</v>
+        <v>0.06349206349206349</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0873015873015873</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.08771929824561403</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0873015873015873</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.08771929824561403</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C13" t="n">
-        <v>0.126984126984127</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.09649122807017543</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C14" t="n">
-        <v>0.126984126984127</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.09649122807017543</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.0873015873015873</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2116,10 +2116,10 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.0873015873015873</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2127,780 +2127,780 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2301587301587301</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1140350877192982</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2301587301587301</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1140350877192982</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C21" t="n">
-        <v>0.246031746031746</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1491228070175439</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C22" t="n">
-        <v>0.246031746031746</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1491228070175439</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2936507936507937</v>
+        <v>0.1507936507936508</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2936507936507937</v>
+        <v>0.1507936507936508</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.1587301587301587</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.1587301587301587</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3174603174603174</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1929824561403509</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3174603174603174</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1929824561403509</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3253968253968254</v>
+        <v>0.1825396825396825</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2017543859649123</v>
+        <v>0.2543859649122807</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3253968253968254</v>
+        <v>0.1825396825396825</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2017543859649123</v>
+        <v>0.2543859649122807</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2192982456140351</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2192982456140351</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3412698412698413</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2280701754385965</v>
+        <v>0.2719298245614035</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3412698412698413</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2280701754385965</v>
+        <v>0.2719298245614035</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.246031746031746</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.246031746031746</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.253968253968254</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2719298245614035</v>
+        <v>0.3070175438596491</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.253968253968254</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2719298245614035</v>
+        <v>0.3070175438596491</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3650793650793651</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3650793650793651</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.3015873015873016</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.3015873015873016</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3070175438596491</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3070175438596491</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4841269841269841</v>
+        <v>0.3253968253968254</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3771929824561404</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4841269841269841</v>
+        <v>0.3253968253968254</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3771929824561404</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C51" t="n">
-        <v>0.492063492063492</v>
+        <v>0.3492063492063492</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C52" t="n">
-        <v>0.492063492063492</v>
+        <v>0.3492063492063492</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.3650793650793651</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3596491228070176</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.3650793650793651</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3596491228070176</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.373015873015873</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3771929824561404</v>
+        <v>0.412280701754386</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.373015873015873</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.3771929824561404</v>
+        <v>0.412280701754386</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5793650793650794</v>
+        <v>0.4206349206349206</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.3859649122807017</v>
+        <v>0.4298245614035088</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5793650793650794</v>
+        <v>0.4206349206349206</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.3859649122807017</v>
+        <v>0.4298245614035088</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.4523809523809524</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4035087719298245</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.4523809523809524</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4035087719298245</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.4682539682539683</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.412280701754386</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.4682539682539683</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.412280701754386</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.4841269841269841</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.4841269841269841</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.5079365079365079</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.456140350877193</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.5079365079365079</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.456140350877193</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.4649122807017544</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.4649122807017544</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6587301587301587</v>
+        <v>0.5476190476190477</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5350877192982456</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6587301587301587</v>
+        <v>0.5476190476190477</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5350877192982456</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.4912280701754386</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.4912280701754386</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5634920634920635</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5634920634920635</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7301587301587301</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.543859649122807</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7301587301587301</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.543859649122807</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7380952380952381</v>
+        <v>0.5793650793650794</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5701754385964912</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7380952380952381</v>
+        <v>0.5793650793650794</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5701754385964912</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C79" t="n">
-        <v>0.753968253968254</v>
+        <v>0.5873015873015873</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.5877192982456141</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C80" t="n">
-        <v>0.753968253968254</v>
+        <v>0.5873015873015873</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.5877192982456141</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.5952380952380952</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6140350877192983</v>
+        <v>0.5877192982456141</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.5952380952380952</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6140350877192983</v>
+        <v>0.5877192982456141</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6031746031746031</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6228070175438597</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6031746031746031</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6228070175438597</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8174603174603174</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6403508771929824</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8174603174603174</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6403508771929824</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6507936507936508</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2908,10 +2908,10 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6507936507936508</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2919,306 +2919,515 @@
         <v>0.6491228070175439</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C89" t="n">
-        <v>0.873015873015873</v>
+        <v>0.6587301587301587</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.6754385964912281</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C90" t="n">
-        <v>0.873015873015873</v>
+        <v>0.6587301587301587</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.6754385964912281</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8968253968253969</v>
+        <v>0.6746031746031746</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7017543859649122</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8968253968253969</v>
+        <v>0.6746031746031746</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.7017543859649122</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9126984126984127</v>
+        <v>0.6904761904761905</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.7280701754385965</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9126984126984127</v>
+        <v>0.6904761904761905</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.7280701754385965</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.7063492063492064</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.7063492063492064</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.7982456140350878</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.7982456140350878</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7280701754385965</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7280701754385965</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.7301587301587301</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.7301587301587301</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.746031746031746</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.746031746031746</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9603174603174603</v>
+        <v>0.753968253968254</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.868421052631579</v>
+        <v>0.7982456140350878</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9603174603174603</v>
+        <v>0.753968253968254</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.868421052631579</v>
+        <v>0.7982456140350878</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.7698412698412699</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.7698412698412699</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.8859649122807017</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.8859649122807017</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9920634920634921</v>
+        <v>0.8015873015873016</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9920634920634921</v>
+        <v>0.8015873015873016</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
+        <v>0.8596491228070176</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.8095238095238095</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.8596491228070176</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.8174603174603174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.8174603174603174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.8253968253968254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.8253968253968254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.8492063492063492</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.8492063492063492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>0.9035087719298246</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>0.9035087719298246</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9603174603174603</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9603174603174603</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9682539682539683</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.9682539682539683</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9841269841269841</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="n">
+        <v>0.9912280701754386</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.9841269841269841</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="n">
+        <v>0.9912280701754386</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9920634920634921</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="n">
         <v>1</v>
       </c>
-      <c r="B116" t="n">
-        <v>0.6301865775549986</v>
-      </c>
-      <c r="C116" t="n">
+      <c r="B134" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.9920634920634921</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="n">
+        <v>1</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,7 +3442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3257,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008771929824561403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3268,10 +3477,10 @@
         <v>0.007936507936507936</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008771929824561403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3279,10 +3488,10 @@
         <v>0.007936507936507936</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1140350877192982</v>
+        <v>0.008771929824561403</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3290,10 +3499,10 @@
         <v>0.01587301587301587</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1140350877192982</v>
+        <v>0.008771929824561403</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3301,32 +3510,32 @@
         <v>0.01587301587301587</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1228070175438596</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1228070175438596</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131578947368421</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3334,10 +3543,10 @@
         <v>0.03968253968253968</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C9" t="n">
-        <v>0.131578947368421</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3345,406 +3554,406 @@
         <v>0.03968253968253968</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08771929824561403</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08771929824561403</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.09649122807017543</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.09649122807017543</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2017543859649123</v>
+        <v>0.1228070175438596</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2017543859649123</v>
+        <v>0.1228070175438596</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.07936507936507936</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.07936507936507936</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2719298245614035</v>
+        <v>0.1403508771929824</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.0873015873015873</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2719298245614035</v>
+        <v>0.1403508771929824</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.0873015873015873</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1031746031746032</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1031746031746032</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.119047619047619</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.119047619047619</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3245614035087719</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.126984126984127</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3245614035087719</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.126984126984127</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3508771929824561</v>
+        <v>0.2017543859649123</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3508771929824561</v>
+        <v>0.2017543859649123</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3596491228070176</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1825396825396825</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3596491228070176</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1825396825396825</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3771929824561404</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3771929824561404</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3859649122807017</v>
+        <v>0.2719298245614035</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3859649122807017</v>
+        <v>0.2719298245614035</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C36" t="n">
-        <v>0.412280701754386</v>
+        <v>0.2807017543859649</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.246031746031746</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C37" t="n">
-        <v>0.412280701754386</v>
+        <v>0.2807017543859649</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.246031746031746</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C40" t="n">
-        <v>0.456140350877193</v>
+        <v>0.2982456140350877</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2698412698412698</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C41" t="n">
-        <v>0.456140350877193</v>
+        <v>0.2982456140350877</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2698412698412698</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3253968253968254</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3253968253968254</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5087719298245614</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3174603174603174</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5087719298245614</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3174603174603174</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3752,10 +3961,10 @@
         <v>0.3412698412698413</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3763,120 +3972,120 @@
         <v>0.3412698412698413</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5350877192982456</v>
+        <v>0.3508771929824561</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5350877192982456</v>
+        <v>0.3508771929824561</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C50" t="n">
-        <v>0.543859649122807</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3650793650793651</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C51" t="n">
-        <v>0.543859649122807</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3650793650793651</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5877192982456141</v>
+        <v>0.412280701754386</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5877192982456141</v>
+        <v>0.412280701754386</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5964912280701754</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5964912280701754</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6140350877192983</v>
+        <v>0.4298245614035088</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3884,10 +4093,10 @@
         <v>0.4206349206349206</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6140350877192983</v>
+        <v>0.4298245614035088</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3895,10 +4104,10 @@
         <v>0.4206349206349206</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6228070175438597</v>
+        <v>0.4385964912280702</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3906,10 +4115,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6228070175438597</v>
+        <v>0.4385964912280702</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3917,296 +4126,296 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6403508771929824</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4523809523809524</v>
+        <v>0.4365079365079365</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6403508771929824</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4523809523809524</v>
+        <v>0.4365079365079365</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.456140350877193</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.456140350877193</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4649122807017544</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5158730158730159</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4649122807017544</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5158730158730159</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6929824561403509</v>
+        <v>0.4912280701754386</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6929824561403509</v>
+        <v>0.4912280701754386</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7017543859649122</v>
+        <v>0.5087719298245614</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7017543859649122</v>
+        <v>0.5087719298245614</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5158730158730159</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5158730158730159</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7192982456140351</v>
+        <v>0.543859649122807</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.5317460317460317</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7192982456140351</v>
+        <v>0.543859649122807</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.5317460317460317</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7280701754385965</v>
+        <v>0.5614035087719298</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7280701754385965</v>
+        <v>0.5614035087719298</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.5701754385964912</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6507936507936508</v>
+        <v>0.5793650793650794</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.5701754385964912</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6507936507936508</v>
+        <v>0.5793650793650794</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7719298245614035</v>
+        <v>0.5877192982456141</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6587301587301587</v>
+        <v>0.626984126984127</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7719298245614035</v>
+        <v>0.5877192982456141</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6587301587301587</v>
+        <v>0.626984126984127</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7807017543859649</v>
+        <v>0.5964912280701754</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7807017543859649</v>
+        <v>0.5964912280701754</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7982456140350878</v>
+        <v>0.6140350877192983</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6746031746031746</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7982456140350878</v>
+        <v>0.6140350877192983</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6746031746031746</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8070175438596491</v>
+        <v>0.6228070175438597</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.6746031746031746</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8070175438596491</v>
+        <v>0.6228070175438597</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.6746031746031746</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4214,10 +4423,10 @@
         <v>0.6904761904761905</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4225,120 +4434,120 @@
         <v>0.6904761904761905</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7063492063492064</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.7063492063492064</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7380952380952381</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7380952380952381</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8508771929824561</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.753968253968254</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8508771929824561</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.753968253968254</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C96" t="n">
-        <v>0.868421052631579</v>
+        <v>0.6929824561403509</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C97" t="n">
-        <v>0.868421052631579</v>
+        <v>0.6929824561403509</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8859649122807017</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.7698412698412699</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8859649122807017</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.7698412698412699</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.7280701754385965</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4346,10 +4555,10 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.7280701754385965</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4357,141 +4566,361 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9035087719298246</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.873015873015873</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9035087719298246</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.873015873015873</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.7456140350877193</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9126984126984127</v>
+        <v>0.8174603174603174</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.7456140350877193</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9126984126984127</v>
+        <v>0.8174603174603174</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.7719298245614035</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9603174603174603</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.7719298245614035</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9603174603174603</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.7807017543859649</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.7807017543859649</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.9920634920634921</v>
+        <v>0.8492063492063492</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.9920634920634921</v>
+        <v>0.8492063492063492</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.8070175438596491</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6301865775549986</v>
+        <v>0.4861459203564467</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.8070175438596491</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.8508771929824561</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.8508771929824561</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.9126984126984127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>0.9126984126984127</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>0.9206349206349206</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>0.9206349206349206</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9298245614035088</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9298245614035088</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9385964912280702</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9385964912280702</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9649122807017544</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="n">
+        <v>0.9841269841269841</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9649122807017544</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="n">
+        <v>0.9841269841269841</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="n">
+        <v>0.9920634920634921</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="n">
+        <v>0.9920634920634921</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="n">
         <v>1</v>
       </c>
-      <c r="B114" t="n">
-        <v>0.6301865775549986</v>
-      </c>
-      <c r="C114" t="n">
+      <c r="B133" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.4861459203564467</v>
+      </c>
+      <c r="C134" t="n">
         <v>1</v>
       </c>
     </row>
